--- a/biology/Botanique/Noisetier/Noisetier.xlsx
+++ b/biology/Botanique/Noisetier/Noisetier.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Corylus
 Corylus (les Noisetiers, appelés aussi Coudriers dans l'Ouest de la France ou les aveliniers dans l'Est et le Sud, particulièrement dans les Vosges) est un genre d'arbres et d'arbustes de la famille des Bétulacées (sous-famille des Coryloïdées) des régions tempérées de l'hémisphère nord. Son fruit s'appelle la noisette. Les noisettes sont particulièrement appréciées de nombreux rongeurs (dont l'écureuil qui les stocke pour l'hiver) et de certains ours. Le noisetier est un arbuste forestier (la noisette pouvant alors être considérée comme un produit forestier non ligneux), mais il est cultivé hors des forêts.
-Le noisetier intéresse aussi beaucoup les trufficulteurs car il peut vivre en symbiose avec la truffe (Tuber uncinatum notamment, autre aliment très apprécié des écureuils et des sangliers) et il enrichit les truffières[1].
+Le noisetier intéresse aussi beaucoup les trufficulteurs car il peut vivre en symbiose avec la truffe (Tuber uncinatum notamment, autre aliment très apprécié des écureuils et des sangliers) et il enrichit les truffières.
 </t>
         </is>
       </c>
@@ -513,12 +525,14 @@
           <t>Histoire, préhistoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">À l'ère Tertiaire, un ensemble continental englobe l'Amérique du Nord, le Groenland et le nord de l'Asie, jusqu'à la Sibérie et la Chine ; on trouve des noisetiers au Groenland[2].
-Avant d'être un arbuste cultivé et d'ornement, le noisetier est une espèce sauvage ancienne, dont le pollen dans les diagrammes polliniques présente des courbes très irrégulières qui ont été associées à des périodes de déglaciation[3] ou de «  mise en lumière » d'un milieu antérieurement boisé (à la suite d'incendies de forêt, de violentes tempêtes ou à la suite d'occupations humaines accompagnant des défrichements (avec ou sans mises en culture).
-De telles observations ont été faites par exemple dans le Jura par Hervé Richard  en 1995 [4], ou encore dans le Nord de l'Angleterre, au sud de l'Écosse ou en Irlande par Oliver Rackham (1980) dès le Néolithique[5]. Les pics passés de pluies de pollens fossilisées dans les tourbières correspondent d'ailleurs à des pics de pollens d'herbacées remarquait Bent Aaby au Danemark en 1986[6] et/ou de plantes typiquement héliophiles de milieux ouverts comme Calluna ou Pteridium  complétait Svend Thorkil Andersen en 1973[7], pouvant signer des modifications du milieu induites par des troupeaux d'herbivores ou une déforestation d'origine humaine (quand par exemple l'accroissement de la pluie de pollens de Corylus s'accompagne de l'apparition de celle de plantes cultivées (Richard, 1997) ou de traces de pâturage (forte proportion de plantes herbacées selon Andersen, 1988)[8].
-Ces traces des pluies polliniques anciennes sont conservées dans les tourbières, mais aussi dans le sol de certaines grottes[9] et les sédiments lacustres (ainsi un sondage palynologique des sédiments du lac de Remoray a montré dans le Doubs une apparition de pollens de céréales (Richard et Ruffaldi, 1996) concomitante à une augmentation de pollens du noisetier.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">À l'ère Tertiaire, un ensemble continental englobe l'Amérique du Nord, le Groenland et le nord de l'Asie, jusqu'à la Sibérie et la Chine ; on trouve des noisetiers au Groenland.
+Avant d'être un arbuste cultivé et d'ornement, le noisetier est une espèce sauvage ancienne, dont le pollen dans les diagrammes polliniques présente des courbes très irrégulières qui ont été associées à des périodes de déglaciation ou de «  mise en lumière » d'un milieu antérieurement boisé (à la suite d'incendies de forêt, de violentes tempêtes ou à la suite d'occupations humaines accompagnant des défrichements (avec ou sans mises en culture).
+De telles observations ont été faites par exemple dans le Jura par Hervé Richard  en 1995 , ou encore dans le Nord de l'Angleterre, au sud de l'Écosse ou en Irlande par Oliver Rackham (1980) dès le Néolithique. Les pics passés de pluies de pollens fossilisées dans les tourbières correspondent d'ailleurs à des pics de pollens d'herbacées remarquait Bent Aaby au Danemark en 1986 et/ou de plantes typiquement héliophiles de milieux ouverts comme Calluna ou Pteridium  complétait Svend Thorkil Andersen en 1973, pouvant signer des modifications du milieu induites par des troupeaux d'herbivores ou une déforestation d'origine humaine (quand par exemple l'accroissement de la pluie de pollens de Corylus s'accompagne de l'apparition de celle de plantes cultivées (Richard, 1997) ou de traces de pâturage (forte proportion de plantes herbacées selon Andersen, 1988).
+Ces traces des pluies polliniques anciennes sont conservées dans les tourbières, mais aussi dans le sol de certaines grottes et les sédiments lacustres (ainsi un sondage palynologique des sédiments du lac de Remoray a montré dans le Doubs une apparition de pollens de céréales (Richard et Ruffaldi, 1996) concomitante à une augmentation de pollens du noisetier.
 </t>
         </is>
       </c>
@@ -547,9 +561,11 @@
           <t>Habitat</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">C'est une espèce typique des fruticées (où il est alors dominant en phase finale d'évolution[10]) et forêts mixtes ou feuillues (alors en sous-bois assez bien éclairé ou en lisières et clairières forestières[10]). Il apprécie les sols riches.
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">C'est une espèce typique des fruticées (où il est alors dominant en phase finale d'évolution) et forêts mixtes ou feuillues (alors en sous-bois assez bien éclairé ou en lisières et clairières forestières). Il apprécie les sols riches.
 </t>
         </is>
       </c>
@@ -578,13 +594,15 @@
           <t>Reproduction</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La protandrie ou la protogynie sont possibles chez cette espèce, avec des variations significatives de durée entre l'ouverture des fleurs femelles et l'émission de pollen chez les variétés protogynes et entre la production de pollen et le moment de réceptivité à la fécondation des fleurs femelles chez les variétés protandres (selon la variété considérée)[11]. Les producteurs cherchent donc à introduire des variétés à longue production de pollen dans leurs plantations[11].
-L'étude de « pluies polliniques » montre que sa pollinisation varie considérablement selon son emplacement et notamment selon son environnement lumineux ; elle semble maximale dans les ouvertures (clairières, chablis) de « petite taille »[10]. Les études polliniques montrent qu'il a en Europe fait partie des premières espèces à remonter vers le nord après le recul des glaces. Le nombre de chatons et l'émission de pollen diminuent fortement en zone ombragée[10].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La protandrie ou la protogynie sont possibles chez cette espèce, avec des variations significatives de durée entre l'ouverture des fleurs femelles et l'émission de pollen chez les variétés protogynes et entre la production de pollen et le moment de réceptivité à la fécondation des fleurs femelles chez les variétés protandres (selon la variété considérée). Les producteurs cherchent donc à introduire des variétés à longue production de pollen dans leurs plantations.
+L'étude de « pluies polliniques » montre que sa pollinisation varie considérablement selon son emplacement et notamment selon son environnement lumineux ; elle semble maximale dans les ouvertures (clairières, chablis) de « petite taille ». Les études polliniques montrent qu'il a en Europe fait partie des premières espèces à remonter vers le nord après le recul des glaces. Le nombre de chatons et l'émission de pollen diminuent fortement en zone ombragée.
 Les fleurs mâles et femelles ne s'ouvrent pas au même moment, ce qui évite théoriquement l'homogamie (en réalité, chez des noisetiers
-isolés une reproduction homogame est parfois observée, permettant la production de fruits[11]).
-Le vent, la pluie, une sécheresse et/ou une gelée tardive ou un sol inadapté peuvent affecter la production, de même que le parasitisme (ex : l'acarien Eriophyes avellanae (Phytopte du noisetier) et/ou le coléoptère Balanin des noisettes qui peut attaquer les graines mais aussi les feuilles et jeunes pousses) ou certaines phytopathologies[11]. Des haies brise-vent et la présence de prédateurs des parasites peuvent favoriser la production.
+isolés une reproduction homogame est parfois observée, permettant la production de fruits).
+Le vent, la pluie, une sécheresse et/ou une gelée tardive ou un sol inadapté peuvent affecter la production, de même que le parasitisme (ex : l'acarien Eriophyes avellanae (Phytopte du noisetier) et/ou le coléoptère Balanin des noisettes qui peut attaquer les graines mais aussi les feuilles et jeunes pousses) ou certaines phytopathologies. Des haies brise-vent et la présence de prédateurs des parasites peuvent favoriser la production.
 </t>
         </is>
       </c>
@@ -613,15 +631,17 @@
           <t>Cultures familiales ou commerciales</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Le lieu de culture de noisetiers s'appelle une noiseraie. Dans les noiseraies, les noisetiers sont conduits en arbre, et donc taillés comme des pommiers de plein vent.
-De nombreuses variétés ont été sélectionnées. Ces variétés dérivent presque toutes en Turquie de Corylus avellana (« à graines rondes ») et Corylus maxima (« à graines ovales »). Certaines variétés (ex variétés Badem) produisent des fruits longs de plus de 20 mm. Les teneurs en huiles, protéines et minéraux varient de quelques pourcents selon les variétés[11].
-La production annuelle varie considérablement selon les années (plus que du simple au double souvent : ex. pour la Turquie : 88 400 tonnes en 1963, mais 195 200 tonnes en 1964 pour retomber à 62 000 tonnes en 1965 puis remonter à 180 000 tonnes en 1966[11]. 
-En 1970, la Turquie était la 1re zone de production avec 246 641 hectares consacrés à cette culture (soit à l'époque environ 60 % de la surface mondiale destinée à la culture de noisetiers en 1970 puis 70 % à 80 % de la production mondiale en 2005), devant l'Italie puis l'Espagne (23 000 ha de plantations en 1970)[11]. La Turquie reste le premier producteur et exportateur mondial de noisettes. Environ 2 millions de personnes en vivent dans ce pays. Elles sont cultivées sur les bords de la mer Noire au nord-est du pays. D'autres pays producteurs et exportateurs au marché mondial de la consommation sont l'Azerbaïdjan, la Géorgie et les États-Unis (Oregon).
+De nombreuses variétés ont été sélectionnées. Ces variétés dérivent presque toutes en Turquie de Corylus avellana (« à graines rondes ») et Corylus maxima (« à graines ovales »). Certaines variétés (ex variétés Badem) produisent des fruits longs de plus de 20 mm. Les teneurs en huiles, protéines et minéraux varient de quelques pourcents selon les variétés.
+La production annuelle varie considérablement selon les années (plus que du simple au double souvent : ex. pour la Turquie : 88 400 tonnes en 1963, mais 195 200 tonnes en 1964 pour retomber à 62 000 tonnes en 1965 puis remonter à 180 000 tonnes en 1966. 
+En 1970, la Turquie était la 1re zone de production avec 246 641 hectares consacrés à cette culture (soit à l'époque environ 60 % de la surface mondiale destinée à la culture de noisetiers en 1970 puis 70 % à 80 % de la production mondiale en 2005), devant l'Italie puis l'Espagne (23 000 ha de plantations en 1970). La Turquie reste le premier producteur et exportateur mondial de noisettes. Environ 2 millions de personnes en vivent dans ce pays. Elles sont cultivées sur les bords de la mer Noire au nord-est du pays. D'autres pays producteurs et exportateurs au marché mondial de la consommation sont l'Azerbaïdjan, la Géorgie et les États-Unis (Oregon).
 Des souches très productives de noisetiers sont depuis longtemps cultivées avec une multiplication des noisetiers faite par des rejets
-de base (marcottage ou utilisation de drageons) à partir de sujets (âgés d'un ou deux ans, droits, vigoureux et provenant de pieds choisis car en bonne santé et très productifs)[11]. Cette culture est principalement faite en Turquie (qui assurait 60 % environ de la production commerciale mondiale de noisettes à la fin des années 1960[11]. En Turquie, les noisetiers étaient traditionnellement plantés ou replantés dans un terrain sarclé chaque année, par groupes de 6 tiges, chaque groupe étant espacé d'environ 4 à 6 m (selon la richesse du sol). Dans chaque touffe les variétés étaient mélangées de manière à favoriser une bonne fécondation (par exemple avec deux pieds à longue période de pollinisation et quatre pieds d'une variété hautement productive.
-Ces noisetiers étaient taillés annuellement, pour aérer la touffe en supprimant des rejets qui tendent à pousser chaque année et en supprimant les rameaux malades ou faiblement vigoureux, et non pour augmenter la fructification. Le noisetier aime les sols riches. Hormis pour les cultures bio qui peuvent bénéficier d'amendements organiques et de cultures de légumineuses, des engrais chimiques peuvent être utilisés (sulfate d'ammoniac, sulfate de potasse)[11],et ont été encouragés[12]. En Turquie, la récolte se fait en aout, d'abord près de la mer, puis de plus en plus en altitude où la maturité est un peu retardée. Vers 1970, en Turquie la récolte se faisait sur pied et avec le réceptacle (bractée encore verte, que l'on laisse ensuite sécher au soleil jusqu'à ce qu'elle se détache facilement), alors qu'en Espagne (autre grand pays producteur)[11], la noisette doit d'abord se déshydrater jusqu'à ne plus contenir que 12 % d'eau (ce qui nécessite quelques jours à plus d'une semaine selon le climat) et peut ensuite être facilement commercialisée et conservée plusieurs mois. Dans les jeunes cultures de noisetiers, l'agroforesterie peut être pratiquée (et l'était traditionnellement) avec des cultures intercalaires, de petit pois ou trèfles (qui enrichissent naturellement le sol en azote) ou de céréales par exemple (maïs en Turquie depuis qu'il a été introduit dans le pays)[11].
+de base (marcottage ou utilisation de drageons) à partir de sujets (âgés d'un ou deux ans, droits, vigoureux et provenant de pieds choisis car en bonne santé et très productifs). Cette culture est principalement faite en Turquie (qui assurait 60 % environ de la production commerciale mondiale de noisettes à la fin des années 1960. En Turquie, les noisetiers étaient traditionnellement plantés ou replantés dans un terrain sarclé chaque année, par groupes de 6 tiges, chaque groupe étant espacé d'environ 4 à 6 m (selon la richesse du sol). Dans chaque touffe les variétés étaient mélangées de manière à favoriser une bonne fécondation (par exemple avec deux pieds à longue période de pollinisation et quatre pieds d'une variété hautement productive.
+Ces noisetiers étaient taillés annuellement, pour aérer la touffe en supprimant des rejets qui tendent à pousser chaque année et en supprimant les rameaux malades ou faiblement vigoureux, et non pour augmenter la fructification. Le noisetier aime les sols riches. Hormis pour les cultures bio qui peuvent bénéficier d'amendements organiques et de cultures de légumineuses, des engrais chimiques peuvent être utilisés (sulfate d'ammoniac, sulfate de potasse),et ont été encouragés. En Turquie, la récolte se fait en aout, d'abord près de la mer, puis de plus en plus en altitude où la maturité est un peu retardée. Vers 1970, en Turquie la récolte se faisait sur pied et avec le réceptacle (bractée encore verte, que l'on laisse ensuite sécher au soleil jusqu'à ce qu'elle se détache facilement), alors qu'en Espagne (autre grand pays producteur), la noisette doit d'abord se déshydrater jusqu'à ne plus contenir que 12 % d'eau (ce qui nécessite quelques jours à plus d'une semaine selon le climat) et peut ensuite être facilement commercialisée et conservée plusieurs mois. Dans les jeunes cultures de noisetiers, l'agroforesterie peut être pratiquée (et l'était traditionnellement) avec des cultures intercalaires, de petit pois ou trèfles (qui enrichissent naturellement le sol en azote) ou de céréales par exemple (maïs en Turquie depuis qu'il a été introduit dans le pays).
 </t>
         </is>
       </c>
